--- a/assets/data/20250516_trend_summary.xlsx
+++ b/assets/data/20250516_trend_summary.xlsx
@@ -454,637 +454,610 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Keyword </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Keyword Count </t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Short Summary </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Source URL </t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Detailed Summary </t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword Count</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Short Summary</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Source URL</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Detailed Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t xml:space="preserve"> 新质生产力 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>---------------</t>
+          <t xml:space="preserve"> 87 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>----------------</t>
+          <t xml:space="preserve"> 国务院印发《新质生产力发展三年行动计划（2025-2027年）》，明确六大重点任务，推动科技与经济深度融合 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>------------</t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/14/content_6942568.htm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-------------------</t>
+          <t xml:space="preserve"> 国务院5月14日印发《新质生产力发展三年行动计划（2025-2027年）》，提出六大重点任务：一是强化科技创新引领，二是加快数字化转型，三是推动产业高端化智能化绿色化发展，四是培育壮大未来产业，五是促进区域协调发展，六是优化创新创业生态。计划推动科技成果转化机制创新，建立国家级新质生产力产业园区，预计到2027年，新质生产力核心产业增加值占GDP比重提高到25%以上。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 新质生产力 </t>
+          <t xml:space="preserve"> 人工智能 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87 </t>
+          <t xml:space="preserve"> 76 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院印发《新质生产力发展三年行动计划（2025-2027年）》，明确六大重点任务，推动科技与经济深度融合 </t>
+          <t xml:space="preserve"> 国家发改委、科技部联合发布《人工智能伦理规范蓝皮书》，提出七大AI伦理原则与各行业技术指南 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/14/content_6942568.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202505/t20250511_1397285.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院5月14日印发《新质生产力发展三年行动计划（2025-2027年）》，提出六大重点任务：一是强化科技创新引领，二是加快数字化转型，三是推动产业高端化智能化绿色化发展，四是培育壮大未来产业，五是促进区域协调发展，六是优化创新创业生态。计划推动科技成果转化机制创新，建立国家级新质生产力产业园区，预计到2027年，新质生产力核心产业增加值占GDP比重提高到25%以上。</t>
+          <t xml:space="preserve"> 国家发改委联合科技部于5月11日发布《人工智能伦理规范蓝皮书》，首次系统提出中国人工智能伦理七大核心原则：促进人类福祉、尊重人类自主、确保公平公正、保障安全可控、维护数据隐私、强化责任担当和推进开放协作。蓝皮书还针对医疗、交通、金融等十大重点领域制定了细化技术指南，要求所有大模型企业须在2026年前完成伦理委员会建设，并对产品进行伦理风险评估。工信部同步发布了配套的《生成式人工智能服务安全要求》国家标准。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人工智能 </t>
+          <t xml:space="preserve"> 科技创新政策 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76 </t>
+          <t xml:space="preserve"> 73 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委、科技部联合发布《人工智能伦理规范蓝皮书》，提出七大AI伦理原则与各行业技术指南 </t>
+          <t xml:space="preserve"> 科技部发布《"十五五"国家科技创新规划》，明确七大科技前沿领域突破方向和支持政策 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202505/t20250511_1397285.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202505/t20250510_189547.html </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委联合科技部于5月11日发布《人工智能伦理规范蓝皮书》，首次系统提出中国人工智能伦理七大核心原则：促进人类福祉、尊重人类自主、确保公平公正、保障安全可控、维护数据隐私、强化责任担当和推进开放协作。蓝皮书还针对医疗、交通、金融等十大重点领域制定了细化技术指南，要求所有大模型企业须在2026年前完成伦理委员会建设，并对产品进行伦理风险评估。工信部同步发布了配套的《生成式人工智能服务安全要求》国家标准。</t>
+          <t xml:space="preserve"> 科技部5月10日正式发布《"十五五"国家科技创新规划》，确定七大科技前沿领域重点突破方向：量子信息、集成电路、人工智能、生物技术、新材料、航空航天和深海深地探测。规划提出创新科研评价机制、扩大科研人员自主权、设立"揭榜挂帅"专项基金、完善科技成果转化激励政策等具体措施。规划同时宣布"十五五"期间国家研发投入强度将达到3.5%，基础研究经费占比提升至10%以上，并设立1000亿元规模的国家科技创新引导基金。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技创新政策 </t>
+          <t xml:space="preserve"> 量子计算 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 73 </t>
+          <t xml:space="preserve"> 65 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部发布《"十五五"国家科技创新规划》，明确七大科技前沿领域突破方向和支持政策 </t>
+          <t xml:space="preserve"> 科技部宣布国家量子计算创新平台建设计划，2025-2027年投入200亿支持三大量子计算路线并行发展 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202505/t20250510_189547.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202505/t20250512_189624.html </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部5月10日正式发布《"十五五"国家科技创新规划》，确定七大科技前沿领域重点突破方向：量子信息、集成电路、人工智能、生物技术、新材料、航空航天和深海深地探测。规划提出创新科研评价机制、扩大科研人员自主权、设立"揭榜挂帅"专项基金、完善科技成果转化激励政策等具体措施。规划同时宣布"十五五"期间国家研发投入强度将达到3.5%，基础研究经费占比提升至10%以上，并设立1000亿元规模的国家科技创新引导基金。</t>
+          <t xml:space="preserve"> 科技部5月12日召开发布会，宣布国家量子计算创新平台建设计划正式启动，2025-2027年将投入200亿元，支持超导量子计算、光量子计算和硅基量子计算三大技术路线并行发展。该计划将建设5个国家级量子计算研发中心，部署云端开放的量子计算基础设施，推动量子算法和应用软件生态建设。同时，计划设立"量子+"专项，促进量子计算在药物研发、材料设计、金融风控等领域的应用示范，并培养5000名量子计算专业人才。中科院量子信息与量子科技创新研究院将作为核心平台进行建设。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子计算 </t>
+          <t xml:space="preserve"> 半导体 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65 </t>
+          <t xml:space="preserve"> 62 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部宣布国家量子计算创新平台建设计划，2025-2027年投入200亿支持三大量子计算路线并行发展 </t>
+          <t xml:space="preserve"> 工信部发布《集成电路产业高质量发展行动方案（2025-2027年）》，提出芯片自给率目标和EDA工具、先进封装等重点突破方向 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202505/t20250512_189624.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/ztgz/xyzcjgz/art/2025/art_72fa9d05c49a4a97a4dc16235c85c7e6.html </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部5月12日召开发布会，宣布国家量子计算创新平台建设计划正式启动，2025-2027年将投入200亿元，支持超导量子计算、光量子计算和硅基量子计算三大技术路线并行发展。该计划将建设5个国家级量子计算研发中心，部署云端开放的量子计算基础设施，推动量子算法和应用软件生态建设。同时，计划设立"量子+"专项，促进量子计算在药物研发、材料设计、金融风控等领域的应用示范，并培养5000名量子计算专业人才。中科院量子信息与量子科技创新研究院将作为核心平台进行建设。</t>
+          <t xml:space="preserve"> 工信部5月15日发布《集成电路产业高质量发展行动方案（2025-2027年）》，提出到2027年芯片自给率达到40%的目标。方案确定五大重点任务：一是突破EDA工具、先进工艺和关键材料等卡脖子技术；二是加快先进封装与测试技术发展；三是强化产业链协同创新；四是培育一批"专精特新"企业；五是优化产业发展环境。方案还宣布成立国家集成电路产业投资基金三期，规模超过2000亿元，重点扶持国产EDA工具开发和先进工艺研发，并将针对14nm及以下工艺企业给予税收优惠政策。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 半导体 </t>
+          <t xml:space="preserve"> 科技成果转化 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62 </t>
+          <t xml:space="preserve"> 59 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《集成电路产业高质量发展行动方案（2025-2027年）》，提出芯片自给率目标和EDA工具、先进封装等重点突破方向 </t>
+          <t xml:space="preserve"> 国务院办公厅印发《科技成果转化改革深化方案》，赋予科研人员更大科技成果所有权和处置权 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/ztgz/xyzcjgz/art/2025/art_72fa9d05c49a4a97a4dc16235c85c7e6.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/16/content_6944572.htm </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部5月15日发布《集成电路产业高质量发展行动方案（2025-2027年）》，提出到2027年芯片自给率达到40%的目标。方案确定五大重点任务：一是突破EDA工具、先进工艺和关键材料等卡脖子技术；二是加快先进封装与测试技术发展；三是强化产业链协同创新；四是培育一批"专精特新"企业；五是优化产业发展环境。方案还宣布成立国家集成电路产业投资基金三期，规模超过2000亿元，重点扶持国产EDA工具开发和先进工艺研发，并将针对14nm及以下工艺企业给予税收优惠政策。</t>
+          <t xml:space="preserve"> 国务院办公厅5月16日印发《科技成果转化改革深化方案》，推出四大改革举措：一是赋予科研人员职务科技成果所有权或长期使用权，高校院所可将70%以上知识产权归属科研人员；二是简化科技成果转化审批流程，建立"负面清单+告知承诺"管理模式；三是完善科技成果评价机制，以市场价值为主要评价标准；四是加大转化激励力度，成果转化收益可提取70%以上用于奖励，且不纳入绩效工资总量。方案同时提出建设国家科技成果转化平台，推动军民两用技术转化应用。新机制将在100家高校院所试点后全面推广。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技成果转化 </t>
+          <t xml:space="preserve"> 数字经济政策 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59 </t>
+          <t xml:space="preserve"> 57 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院办公厅印发《科技成果转化改革深化方案》，赋予科研人员更大科技成果所有权和处置权 </t>
+          <t xml:space="preserve"> 数字中国建设领导小组发布《数字经济发展战略纲要（2025-2035年）》，提出五大数字产业集群建设计划 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/16/content_6944572.htm </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/zhengceku/202505/15/content_6943785.htm </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院办公厅5月16日印发《科技成果转化改革深化方案》，推出四大改革举措：一是赋予科研人员职务科技成果所有权或长期使用权，高校院所可将70%以上知识产权归属科研人员；二是简化科技成果转化审批流程，建立"负面清单+告知承诺"管理模式；三是完善科技成果评价机制，以市场价值为主要评价标准；四是加大转化激励力度，成果转化收益可提取70%以上用于奖励，且不纳入绩效工资总量。方案同时提出建设国家科技成果转化平台，推动军民两用技术转化应用。新机制将在100家高校院所试点后全面推广。</t>
+          <t xml:space="preserve"> 数字中国建设领导小组5月15日发布《数字经济发展战略纲要（2025-2035年）》，提出到2035年数字经济核心产业增加值占GDP比重达25%的目标。纲要规划建设五大数字产业集群：算力与智能计算、数字内容与虚拟现实、工业互联网、智慧城市与数字生活、数字健康与生命科学。同时部署四大任务：一是构建数据要素市场体系；二是推进数字技术与实体经济深度融合；三是完善数字经济治理体系；四是深化数字经济国际合作。纲要特别强调推动数据确权、流通、交易和收益分配机制创新，并设立2000亿元规模的数字经济创新发展基金。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字经济政策 </t>
+          <t xml:space="preserve"> 未来产业政策 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57 </t>
+          <t xml:space="preserve"> 54 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字中国建设领导小组发布《数字经济发展战略纲要（2025-2035年）》，提出五大数字产业集群建设计划 </t>
+          <t xml:space="preserve"> 国家发改委发布《未来产业培育壮大行动计划（2025-2030年）》，聚焦十大未来产业方向和产业集群布局 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/zhengceku/202505/15/content_6943785.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/ghwb/202505/t20250509_1396984.html </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字中国建设领导小组5月15日发布《数字经济发展战略纲要（2025-2035年）》，提出到2035年数字经济核心产业增加值占GDP比重达25%的目标。纲要规划建设五大数字产业集群：算力与智能计算、数字内容与虚拟现实、工业互联网、智慧城市与数字生活、数字健康与生命科学。同时部署四大任务：一是构建数据要素市场体系；二是推进数字技术与实体经济深度融合；三是完善数字经济治理体系；四是深化数字经济国际合作。纲要特别强调推动数据确权、流通、交易和收益分配机制创新，并设立2000亿元规模的数字经济创新发展基金。</t>
+          <t xml:space="preserve"> 国家发改委5月9日发布《未来产业培育壮大行动计划（2025-2030年）》，明确十大未来产业发展方向：类脑智能、量子信息、基因技术、未来网络、深海空天、氢能与先进核能、未来材料、无人系统、元宇宙和合成生物学。计划提出四大任务：一是建设未来产业技术创新中心；二是打造未来产业先导区和示范区；三是培育未来产业领军企业；四是加强前沿技术引进消化吸收再创新。同时宣布在全国布局建设30个未来产业集群，每个集群给予不低于50亿元的财政资金支持，带动社会资本参与，推动形成未来产业发展新格局。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 未来产业政策 </t>
+          <t xml:space="preserve"> 绿色环保技术 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54 </t>
+          <t xml:space="preserve"> 51 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委发布《未来产业培育壮大行动计划（2025-2030年）》，聚焦十大未来产业方向和产业集群布局 </t>
+          <t xml:space="preserve"> 生态环境部与科技部联合发布《绿色低碳技术创新行动方案》，重点部署六大领域技术攻关和示范应用 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/ghwb/202505/t20250509_1396984.html </t>
+          <t xml:space="preserve"> https://www.mee.gov.cn/xxgk2018/xxgk/xxgk03/202505/t20250513_1022576.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委5月9日发布《未来产业培育壮大行动计划（2025-2030年）》，明确十大未来产业发展方向：类脑智能、量子信息、基因技术、未来网络、深海空天、氢能与先进核能、未来材料、无人系统、元宇宙和合成生物学。计划提出四大任务：一是建设未来产业技术创新中心；二是打造未来产业先导区和示范区；三是培育未来产业领军企业；四是加强前沿技术引进消化吸收再创新。同时宣布在全国布局建设30个未来产业集群，每个集群给予不低于50亿元的财政资金支持，带动社会资本参与，推动形成未来产业发展新格局。</t>
+          <t xml:space="preserve"> 生态环境部与科技部5月13日联合发布《绿色低碳技术创新行动方案》，重点部署六大领域技术攻关：碳捕集利用与封存(CCUS)、新型储能、氢能、工业流程再造、零碳建筑和环境污染治理。方案提出三大任务：一是建设国家绿色技术创新中心，二是实施百项绿色技术示范工程，三是建立绿色技术交易市场。方案特别强调加快CCUS技术规模化应用，计划到2027年建成10个百万吨级CCUS示范项目；同时推动"新型电力系统+"工程建设，实现可再生能源、储能与氢能多能互补。方案还提出建立碳减排技术评估体系和绿色技术创新金融支持机制。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 绿色环保技术 </t>
+          <t xml:space="preserve"> 战略新兴产业 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51 </t>
+          <t xml:space="preserve"> 49 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生态环境部与科技部联合发布《绿色低碳技术创新行动方案》，重点部署六大领域技术攻关和示范应用 </t>
+          <t xml:space="preserve"> 工信部发布《战略性新兴产业重点领域和产品目录（2025年版）》，扩展至9大产业领域，首次将生物制造列为独立领域 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.mee.gov.cn/xxgk2018/xxgk/xxgk03/202505/t20250513_1022576.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/zwgk/zcwj/wjfb/art/2025/art_66a7cdfd3a9a48509175deb69ced2d38.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生态环境部与科技部5月13日联合发布《绿色低碳技术创新行动方案》，重点部署六大领域技术攻关：碳捕集利用与封存(CCUS)、新型储能、氢能、工业流程再造、零碳建筑和环境污染治理。方案提出三大任务：一是建设国家绿色技术创新中心，二是实施百项绿色技术示范工程，三是建立绿色技术交易市场。方案特别强调加快CCUS技术规模化应用，计划到2027年建成10个百万吨级CCUS示范项目；同时推动"新型电力系统+"工程建设，实现可再生能源、储能与氢能多能互补。方案还提出建立碳减排技术评估体系和绿色技术创新金融支持机制。</t>
+          <t xml:space="preserve"> 工信部5月10日发布《战略性新兴产业重点领域和产品目录（2025年版）》，将战略性新兴产业扩展至9大领域：新一代信息技术、高端装备制造、新材料、生物产业、新能源汽车、新能源、节能环保、数字创意和生物制造。目录首次将生物制造列为独立产业领域，并大幅扩充了量子技术、类脑芯片、工业软件等细分领域。目录还明确了各领域重点产品和服务，设立了准入标准和技术指标，将作为各地产业规划、政策制定和项目管理的重要依据。同时工信部宣布设立1000亿元专项资金，支持战略性新兴产业集群建设和重大项目实施。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 战略新兴产业 </t>
+          <t xml:space="preserve"> 创新驱动发展 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49 </t>
+          <t xml:space="preserve"> 46 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《战略性新兴产业重点领域和产品目录（2025年版）》，扩展至9大产业领域，首次将生物制造列为独立领域 </t>
+          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅印发《关于深化科技体制机制改革 加快建设创新型国家的若干意见》，推出八大改革举措 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/zwgk/zcwj/wjfb/art/2025/art_66a7cdfd3a9a48509175deb69ced2d38.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-05/14/content_6942765.htm </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部5月10日发布《战略性新兴产业重点领域和产品目录（2025年版）》，将战略性新兴产业扩展至9大领域：新一代信息技术、高端装备制造、新材料、生物产业、新能源汽车、新能源、节能环保、数字创意和生物制造。目录首次将生物制造列为独立产业领域，并大幅扩充了量子技术、类脑芯片、工业软件等细分领域。目录还明确了各领域重点产品和服务，设立了准入标准和技术指标，将作为各地产业规划、政策制定和项目管理的重要依据。同时工信部宣布设立1000亿元专项资金，支持战略性新兴产业集群建设和重大项目实施。</t>
+          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅5月14日印发《关于深化科技体制机制改革 加快建设创新型国家的若干意见》，推出八大改革举措：一是深化科研项目和经费管理改革；二是完善科技人才评价激励机制；三是加强基础研究支持；四是健全企业创新主体地位；五是完善科技金融服务体系；六是强化知识产权创造保护运用；七是深化科技开放合作；八是加强科技治理能力建设。其中，对科研人员的改革最为突出，明确提出：扩大科研自主权，建立容错纠错机制，大幅减少各类评审评价，将项目经费使用自主权下放至课题组，对青年科学家给予长周期稳定支持。文件还明确提出科技投入向基础前沿领域和"卡脖子"问题倾斜。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 创新驱动发展 </t>
+          <t xml:space="preserve"> 科技体制改革 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46 </t>
+          <t xml:space="preserve"> 43 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅印发《关于深化科技体制机制改革 加快建设创新型国家的若干意见》，推出八大改革举措 </t>
+          <t xml:space="preserve"> 科技部印发《关于赋予科研人员更大科研自主权的若干措施》，全面推进"揭榜挂帅"制度和"包干制"经费管理改革 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-05/14/content_6942765.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/zcwj/202505/t20250511_189598.html </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅5月14日印发《关于深化科技体制机制改革 加快建设创新型国家的若干意见》，推出八大改革举措：一是深化科研项目和经费管理改革；二是完善科技人才评价激励机制；三是加强基础研究支持；四是健全企业创新主体地位；五是完善科技金融服务体系；六是强化知识产权创造保护运用；七是深化科技开放合作；八是加强科技治理能力建设。其中，对科研人员的改革最为突出，明确提出：扩大科研自主权，建立容错纠错机制，大幅减少各类评审评价，将项目经费使用自主权下放至课题组，对青年科学家给予长周期稳定支持。文件还明确提出科技投入向基础前沿领域和"卡脖子"问题倾斜。</t>
+          <t xml:space="preserve"> 科技部5月11日印发《关于赋予科研人员更大科研自主权的若干措施》，推出四大改革：一是全面实施国家重点研发计划"揭榜挂帅"制度，由科研人员自主申报重大科学问题和关键技术攻关方向；二是推行科研项目经费"包干制"管理，取消直接费用科目比例限制；三是建立科研人员学术休假制度，支持科研人员脱产从事研究工作；四是建立青年人才支持专项，为青年科研人员提供稳定支持。措施还明确提出简化科研项目申报流程，将材料减少50%以上，建立诚信承诺制；同时改革科技评价制度，对基础研究实行长周期评价，减少过程管理，注重成果质量和贡献。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技体制改革 </t>
+          <t xml:space="preserve"> 人才引进政策 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43 </t>
+          <t xml:space="preserve"> 42 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部印发《关于赋予科研人员更大科研自主权的若干措施》，全面推进"揭榜挂帅"制度和"包干制"经费管理改革 </t>
+          <t xml:space="preserve"> 国家发改委、科技部等八部门联合发布《国际高端科技人才引进计划（2025-2030年）》，提供"绿色通道"和专项资金支持 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/zcwj/202505/t20250511_189598.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202505/t20250513_1398235.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部5月11日印发《关于赋予科研人员更大科研自主权的若干措施》，推出四大改革：一是全面实施国家重点研发计划"揭榜挂帅"制度，由科研人员自主申报重大科学问题和关键技术攻关方向；二是推行科研项目经费"包干制"管理，取消直接费用科目比例限制；三是建立科研人员学术休假制度，支持科研人员脱产从事研究工作；四是建立青年人才支持专项，为青年科研人员提供稳定支持。措施还明确提出简化科研项目申报流程，将材料减少50%以上，建立诚信承诺制；同时改革科技评价制度，对基础研究实行长周期评价，减少过程管理，注重成果质量和贡献。</t>
+          <t xml:space="preserve"> 国家发改委、科技部等八部门5月13日联合发布《国际高端科技人才引进计划（2025-2030年）》，提出到2030年引进2万名世界一流科学家和高端科技人才的目标。计划推出五大政策：一是提供"绿色通道"永久居留权和出入境便利；二是建立年薪制和股权激励机制；三是提供科研启动经费，顶尖人才最高可获1亿元支持；四是解决子女教育、配偶就业、医疗保障等问题；五是允许引进人才担任国家重点实验室和研究中心负责人。计划重点瞄准量子科学、集成电路、生物医药、人工智能、新材料等前沿领域人才，在全国设立20个国际人才社区和50个海外人才工作站，建立"一站式"服务平台。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人才引进政策 </t>
+          <t xml:space="preserve"> 量子通信 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 41 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委、科技部等八部门联合发布《国际高端科技人才引进计划（2025-2030年）》，提供"绿色通道"和专项资金支持 </t>
+          <t xml:space="preserve"> 工信部发布《量子通信产业创新发展行动计划（2025-2027年）》，推动量子通信规模化应用和产业集群建设 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202505/t20250513_1398235.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_2f90c5a5b3214b18aa5954fc5a84eaa9.html </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委、科技部等八部门5月13日联合发布《国际高端科技人才引进计划（2025-2030年）》，提出到2030年引进2万名世界一流科学家和高端科技人才的目标。计划推出五大政策：一是提供"绿色通道"永久居留权和出入境便利；二是建立年薪制和股权激励机制；三是提供科研启动经费，顶尖人才最高可获1亿元支持；四是解决子女教育、配偶就业、医疗保障等问题；五是允许引进人才担任国家重点实验室和研究中心负责人。计划重点瞄准量子科学、集成电路、生物医药、人工智能、新材料等前沿领域人才，在全国设立20个国际人才社区和50个海外人才工作站，建立"一站式"服务平台。</t>
+          <t xml:space="preserve"> 工信部5月15日发布《量子通信产业创新发展行动计划（2025-2027年）》，提出到2027年建成覆盖全国主要城市的量子通信骨干网络，实现量子通信产业规模突破200亿元的目标。计划部署四项重点任务：一是加快量子通信核心器件研发及产业化；二是推动量子通信网络建设与互联互通；三是促进量子通信规模化应用；四是培育量子通信产业集群。计划将在京津冀、长三角、粤港澳大湾区和成渝地区建设四大量子通信产业集群，并在金融、电力、政务等领域部署一批量子安全示范工程。同时，计划提出建立量子通信标准体系，加强国际合作，推动中国量子通信技术和标准"走出去"。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子通信 </t>
+          <t xml:space="preserve"> 政府间科技合作 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41 </t>
+          <t xml:space="preserve"> 38 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《量子通信产业创新发展行动计划（2025-2027年）》，推动量子通信规模化应用和产业集群建设 </t>
+          <t xml:space="preserve"> 科技部与欧盟委员会签署《中欧科技创新合作协定》，启动六大联合研究项目和人才交流计划 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_2f90c5a5b3214b18aa5954fc5a84eaa9.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202505/t20250512_189631.html </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部5月15日发布《量子通信产业创新发展行动计划（2025-2027年）》，提出到2027年建成覆盖全国主要城市的量子通信骨干网络，实现量子通信产业规模突破200亿元的目标。计划部署四项重点任务：一是加快量子通信核心器件研发及产业化；二是推动量子通信网络建设与互联互通；三是促进量子通信规模化应用；四是培育量子通信产业集群。计划将在京津冀、长三角、粤港澳大湾区和成渝地区建设四大量子通信产业集群，并在金融、电力、政务等领域部署一批量子安全示范工程。同时，计划提出建立量子通信标准体系，加强国际合作，推动中国量子通信技术和标准"走出去"。</t>
+          <t xml:space="preserve"> 科技部与欧盟委员会5月12日在布鲁塞尔签署《中欧科技创新合作协定》，双方将在六大领域启动联合研究项目：气候变化与环境保护、新能源、生物医药、人工智能伦理、量子科学和海洋科研。协定还包括四项具体合作机制：一是设立50亿欧元规模的中欧科技创新合作基金；二是建立科研人员双向流动机制，每年互派1000名科学家开展合作研究；三是共建中欧联合实验室，首批启动10个；四是开展青年科学家交流计划，为双方青年科研人员提供短期研修机会。双方同意共同应对全球性挑战，促进科技成果共享，共同制定相关国际标准，推动科技创新全球治理。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 政府间科技合作 </t>
+          <t xml:space="preserve"> 产学研结合 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38 </t>
+          <t xml:space="preserve"> 36 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部与欧盟委员会签署《中欧科技创新合作协定》，启动六大联合研究项目和人才交流计划 </t>
+          <t xml:space="preserve"> 科技部、教育部、工信部联合发布《产学研用深度融合创新平台建设方案》，构建企业牵头的协同创新体系 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202505/t20250512_189631.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/qtwj/zytzwj/202505/t20250516_189742.html </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部与欧盟委员会5月12日在布鲁塞尔签署《中欧科技创新合作协定》，双方将在六大领域启动联合研究项目：气候变化与环境保护、新能源、生物医药、人工智能伦理、量子科学和海洋科研。协定还包括四项具体合作机制：一是设立50亿欧元规模的中欧科技创新合作基金；二是建立科研人员双向流动机制，每年互派1000名科学家开展合作研究；三是共建中欧联合实验室，首批启动10个；四是开展青年科学家交流计划，为双方青年科研人员提供短期研修机会。双方同意共同应对全球性挑战，促进科技成果共享，共同制定相关国际标准，推动科技创新全球治理。</t>
+          <t xml:space="preserve"> 科技部、教育部、工信部5月16日联合发布《产学研用深度融合创新平台建设方案》，提出构建以企业为主体、市场为导向、产学研用深度融合的技术创新体系。方案部署三项重点任务：一是建设100个企业牵头的产学研协同创新平台，其中中央财政给予每个平台3000万元支持；二是开展关键核心技术联合攻关，重点支持集成电路、高端装备、生物医药等领域；三是深化人才培养模式改革，实施"订单式"人才培养，推动校企共建实习实训基地。方案特别强调改革科技成果转化机制，提出建立高校院所与企业双向流动机制，允许高校院所科研人员在企业兼职并按劳取酬，同时鼓励企业人才到高校院所任教。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 产学研结合 </t>
+          <t xml:space="preserve"> 人工智能实验室 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36 </t>
+          <t xml:space="preserve"> 35 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部、教育部、工信部联合发布《产学研用深度融合创新平台建设方案》，构建企业牵头的协同创新体系 </t>
+          <t xml:space="preserve"> 科技部公布国家新一代人工智能开放创新平台名单，新增15家平台并启动大模型协同创新网络 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/qtwj/zytzwj/202505/t20250516_189742.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202505/t20250515_189702.html </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部、教育部、工信部5月16日联合发布《产学研用深度融合创新平台建设方案》，提出构建以企业为主体、市场为导向、产学研用深度融合的技术创新体系。方案部署三项重点任务：一是建设100个企业牵头的产学研协同创新平台，其中中央财政给予每个平台3000万元支持；二是开展关键核心技术联合攻关，重点支持集成电路、高端装备、生物医药等领域；三是深化人才培养模式改革，实施"订单式"人才培养，推动校企共建实习实训基地。方案特别强调改革科技成果转化机制，提出建立高校院所与企业双向流动机制，允许高校院所科研人员在企业兼职并按劳取酬，同时鼓励企业人才到高校院所任教。</t>
+          <t xml:space="preserve"> 科技部5月15日公布国家新一代人工智能开放创新平台新一批名单，新增15家平台，包括华为（基础软硬件）、商汤（计算机视觉）、科大讯飞（语音识别）、百度（自动驾驶）等企业主导的开放创新平台。同时，科技部宣布启动"大模型协同创新网络"，重点部署四项任务：一是建设大模型"算法-数据-算力"创新体系；二是强化行业应用场景开发；三是完善大模型评测体系；四是推动大模型开源开放。科技部还提出对国家人工智能开放创新平台"支持升级、动态调整"的管理机制，要求平台每年向中小企业开放核心技术能力和应用服务API不少于50项，并提供优惠政策，促进人工智能产业生态繁荣发展。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人工智能实验室 </t>
+          <t xml:space="preserve"> 联合研究中心 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35 </t>
+          <t xml:space="preserve"> 33 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部公布国家新一代人工智能开放创新平台名单，新增15家平台并启动大模型协同创新网络 </t>
+          <t xml:space="preserve"> 科技部与日本文部科学省签署协议，共建中日量子科学联合研究中心，开展量子计算和量子通信合作 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202505/t20250515_189702.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjzc/202505/t20250509_189523.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部5月15日公布国家新一代人工智能开放创新平台新一批名单，新增15家平台，包括华为（基础软硬件）、商汤（计算机视觉）、科大讯飞（语音识别）、百度（自动驾驶）等企业主导的开放创新平台。同时，科技部宣布启动"大模型协同创新网络"，重点部署四项任务：一是建设大模型"算法-数据-算力"创新体系；二是强化行业应用场景开发；三是完善大模型评测体系；四是推动大模型开源开放。科技部还提出对国家人工智能开放创新平台"支持升级、动态调整"的管理机制，要求平台每年向中小企业开放核心技术能力和应用服务API不少于50项，并提供优惠政策，促进人工智能产业生态繁荣发展。</t>
+          <t xml:space="preserve"> 科技部与日本文部科学省5月9日签署协议，决定共建中日量子科学联合研究中心，聚焦量子计算和量子通信两大领域开展合作研究。中心由中国科学技术大学和日本理化学研究所共同牵头，将在四个方向开展研究：超导量子计算、光量子计算、量子算法和量子密码通信。双方各投入5亿元初期建设资金，并计划在5年内联合培养100名量子科学博士。中心将采用"2+6"模式运行，即两个牵头机构加六个参与机构（中方：中科院物理所、北京量子信息研究院、浙江大学；日方：东京大学、大阪大学、名古屋大学）。双方强调，中心成果将在遵循知识产权保护原则下促进开放共享，并共同举办国际学术论坛，吸引全球量子科学人才参与。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 联合研究中心 </t>
+          <t xml:space="preserve"> 工业互联网安全 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33 </t>
+          <t xml:space="preserve"> 32 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部与日本文部科学省签署协议，共建中日量子科学联合研究中心，开展量子计算和量子通信合作 </t>
+          <t xml:space="preserve"> 工信部发布《工业互联网安全保障体系建设指南》，构建"1+4+N"安全防护框架 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjzc/202505/t20250509_189523.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_c19bd9845a0f477eac29c25c2e86f4aa.html </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部与日本文部科学省5月9日签署协议，决定共建中日量子科学联合研究中心，聚焦量子计算和量子通信两大领域开展合作研究。中心由中国科学技术大学和日本理化学研究所共同牵头，将在四个方向开展研究：超导量子计算、光量子计算、量子算法和量子密码通信。双方各投入5亿元初期建设资金，并计划在5年内联合培养100名量子科学博士。中心将采用"2+6"模式运行，即两个牵头机构加六个参与机构（中方：中科院物理所、北京量子信息研究院、浙江大学；日方：东京大学、大阪大学、名古屋大学）。双方强调，中心成果将在遵循知识产权保护原则下促进开放共享，并共同举办国际学术论坛，吸引全球量子科学人才参与。</t>
+          <t xml:space="preserve"> 工信部5月14日发布《工业互联网安全保障体系建设指南》，提出构建"1+4+N"工业互联网安全防护框架，即1个安全管理平台、4大安全防护体系（网络、平台、数据和应用安全）和N类安全解决方案。指南部署三大任务：一是建设国家工业互联网安全技术保障平台与监测体系；二是推动安全产品和服务创新；三是建设工业互联网安全产业生态。指南特别强调对工业控制系统的安全防护，要求在能源、化工、交通等重点行业实施安全分级防护，建立供应链安全风险评估机制，推动工业设备内生安全设计。同时，指南提出培育100家工业互联网安全骨干企业，建设10个国家级工业互联网安全产业基地，形成年产值超过1000亿元的安全产业规模。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工业互联网安全 </t>
+          <t xml:space="preserve"> 知识产权保护 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32 </t>
+          <t xml:space="preserve"> 31 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《工业互联网安全保障体系建设指南》，构建"1+4+N"安全防护框架 </t>
+          <t xml:space="preserve"> 国务院印发《知识产权强国建设纲要（2025-2035年）》，提出知识产权保护和运用改革十大举措 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_c19bd9845a0f477eac29c25c2e86f4aa.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/10/content_6941127.htm </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部5月14日发布《工业互联网安全保障体系建设指南》，提出构建"1+4+N"工业互联网安全防护框架，即1个安全管理平台、4大安全防护体系（网络、平台、数据和应用安全）和N类安全解决方案。指南部署三大任务：一是建设国家工业互联网安全技术保障平台与监测体系；二是推动安全产品和服务创新；三是建设工业互联网安全产业生态。指南特别强调对工业控制系统的安全防护，要求在能源、化工、交通等重点行业实施安全分级防护，建立供应链安全风险评估机制，推动工业设备内生安全设计。同时，指南提出培育100家工业互联网安全骨干企业，建设10个国家级工业互联网安全产业基地，形成年产值超过1000亿元的安全产业规模。</t>
+          <t xml:space="preserve"> 国务院5月10日印发《知识产权强国建设纲要（2025-2035年）》，提出到2035年我国知识产权综合实力进入世界前列的目标。纲要部署十大改革举措：一是完善高质量知识产权保护体系；二是健全知识产权创造激励机制；三是提升知识产权转化运用效能；四是建设知识产权保护中心网络；五是加强源头创新知识产权布局；六是提高知识产权审查质量和效率；七是加强海外知识产权维权援助；八是深化知识产权国际合作；九是发展知识产权服务业；十是加强知识产权人才培养。纲要特别强调加大对专利侵权惩罚性赔偿力度，最高可达侵权损失的五倍，并建立健全专利、商标、版权、商业秘密等协同保护机制。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 知识产权保护 </t>
+          <t xml:space="preserve"> 国际创新平台 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院印发《知识产权强国建设纲要（2025-2035年）》，提出知识产权保护和运用改革十大举措 </t>
+          <t xml:space="preserve"> 科技部、外交部联合印发《全球科技创新中心建设行动计划》，提出建设北京、上海、粤港澳三大全球科创中心 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/10/content_6941127.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202505/t20250510_189566.html </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院5月10日印发《知识产权强国建设纲要（2025-2035年）》，提出到2035年我国知识产权综合实力进入世界前列的目标。纲要部署十大改革举措：一是完善高质量知识产权保护体系；二是健全知识产权创造激励机制；三是提升知识产权转化运用效能；四是建设知识产权保护中心网络；五是加强源头创新知识产权布局；六是提高知识产权审查质量和效率；七是加强海外知识产权维权援助；八是深化知识产权国际合作；九是发展知识产权服务业；十是加强知识产权人才培养。纲要特别强调加大对专利侵权惩罚性赔偿力度，最高可达侵权损失的五倍，并建立健全专利、商标、版权、商业秘密等协同保护机制。</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 国际创新平台 </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 29 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 科技部、外交部联合印发《全球科技创新中心建设行动计划》，提出建设北京、上海、粤港澳三大全球科创中心 </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202505/t20250510_189566.html </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t xml:space="preserve"> 科技部、外交部5月10日联合印发《全球科技创新中心建设行动计划》，提出重点建设北京、上海、粤港澳大湾区三大全球科技创新中心，培育合肥、西安、成都、武汉等区域科技创新中心。计划部署四大任务：一是建设一批国际科技合作基地，包括国际联合研究中心、海外科学园和全球创新网络节点；二是实施重大科技基础设施开放共享计划；三是组织实施全球性科技挑战联合攻关；四是建立国际科技人才培养和交流机制。计划提出三大保障措施：设立500亿元国际科技合作专项基金，完善国际科技合作政策法规体系，建立多层次国际科技交流合作机制。计划强调推动科技创新全球治理，提高国际科技规则和标准制定参与度。</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1542,14 +1515,152 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>新质生产力</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>联合研究中心</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>联合研究中心</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>联合研究中心</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1560,7 +1671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,10 +1694,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>联合研究中心</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>工业互联网安全</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
     </row>
